--- a/Model/sms/短信时间点维表.xlsx
+++ b/Model/sms/短信时间点维表.xlsx
@@ -167,15 +167,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -503,120 +503,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -630,12 +630,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="P1:Z1"/>
     <mergeCell ref="E1:O1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="P1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
